--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22cf575e998a38c2/desktop/school/school_2022-2023_odisee_jaar_3/led driver power led/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{3339FE33-B8C9-40F3-BA08-B51E58FA249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB1FA94-45CF-41EE-87B5-6ECF660AD32E}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{3339FE33-B8C9-40F3-BA08-B51E58FA249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6F3C612-B40D-488C-A5B3-AEE970676E77}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7C34ECF-0D5A-432A-869B-E64964BC8963}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>componenten</t>
   </si>
@@ -206,9 +206,6 @@
     <t>https://be.farnell.com/vishay/crcw120610r0fkeahp/res-10r-1-0-75w-1206-thick-film/dp/1738986?st=weerstand%2010ohm%201206</t>
   </si>
   <si>
-    <t>alternatief aliexpress</t>
-  </si>
-  <si>
     <t>https://nl.aliexpress.com/item/1005001520382593.html?af=316052&amp;afref=&amp;cn=19676&amp;cv=735481&amp;dp=735481%3A%3A316052%3A%3ACjwKCAiAoL6eBhA3EiwAXDom5nbpgzb24q6672KpQogoMIB7D1kJVJIzoeqIJ7qManJ1jrYV8-K8iBoCAQcQAvD.BwE%3A%3A%3A%3A1674591563&amp;aff_fcid=e085289ef220494ca9674cb51212356f-1674591563330-05155-YfmMrZfMJ&amp;aff_fsk=YfmMrZfMJ&amp;aff_platform=aaf&amp;sk=YfmMrZfMJ&amp;aff_trace_key=e085289ef220494ca9674cb51212356f-1674591563330-05155-YfmMrZfMJ&amp;terminal_id=dce7fe7314bb41a089845f15ca24b83f&amp;gatewayAdapt=glo2nld</t>
   </si>
   <si>
@@ -240,6 +237,33 @@
   </si>
   <si>
     <t xml:space="preserve">ROHS </t>
+  </si>
+  <si>
+    <t>koelvin</t>
+  </si>
+  <si>
+    <t>thermische pad</t>
+  </si>
+  <si>
+    <t>https://be.farnell.com/multicomp-pro/mpgcs-030-150-0-5a/thermal-pad-silicone-150x0-5mm/dp/3267479?st=thermal%20pad%20scilicon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SILICONE, 150X0.5MM</t>
+  </si>
+  <si>
+    <t>TME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternatief </t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/be/en/details/icks50x50x50/heatsinks-for-led/fischer-elektronik/?utm_source=octopart.com&amp;utm_medium=cpc&amp;utm_campaign=compare-2022-12</t>
+  </si>
+  <si>
+    <t>prijs gedeeld./4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L: 50mm; W: 50mm; H: 50mm; 4.05K/W</t>
   </si>
 </sst>
 </file>
@@ -328,6 +352,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E2CFEC-EC56-4C41-B488-18F061CACAB4}">
-  <dimension ref="B2:L26"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,10 +681,10 @@
         <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
@@ -671,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>4</v>
@@ -685,10 +713,10 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -712,10 +740,10 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>38</v>
@@ -727,7 +755,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I24" si="0">G4*H4</f>
+        <f t="shared" ref="I4:I26" si="0">G4*H4</f>
         <v>2.2799999999999998</v>
       </c>
     </row>
@@ -739,10 +767,10 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>39</v>
@@ -766,10 +794,10 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -793,10 +821,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>41</v>
@@ -812,7 +840,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7">
         <v>1.48</v>
@@ -826,10 +854,10 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>42</v>
@@ -853,10 +881,10 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>43</v>
@@ -880,10 +908,10 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>44</v>
@@ -907,10 +935,10 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>37</v>
@@ -934,10 +962,10 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>45</v>
@@ -961,10 +989,10 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>48</v>
@@ -988,10 +1016,10 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>46</v>
@@ -1015,10 +1043,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>47</v>
@@ -1042,10 +1070,10 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>49</v>
@@ -1069,10 +1097,10 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>50</v>
@@ -1096,10 +1124,10 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>51</v>
@@ -1123,10 +1151,10 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>54</v>
@@ -1150,10 +1178,10 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>55</v>
@@ -1177,10 +1205,10 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>52</v>
@@ -1204,10 +1232,10 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>53</v>
@@ -1223,38 +1251,98 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>12.24</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>12.24</v>
+      </c>
+    </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
+        <v>13.1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>13.1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24">
+        <v>3.2749999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>13.27</v>
       </c>
-      <c r="I24">
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>13.27</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="2">
-        <f>I3+I4+I5+I6+I7+I8+I9+I10+I11+I12+I13+I14+I15+I16+I17+I18+I19+I20+I21+I22+I24</f>
-        <v>43.411900000000003</v>
-      </c>
-      <c r="L26" s="2">
-        <f>I3+I4+I5+I6+L7+I8+I9+I10+I11+I12+I13+I14+I15+I16+I17+I18+I19+I20+I21+I22+I24</f>
-        <v>40.041899999999998</v>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="2">
+        <f>I3+I4+I5+I6+I7+I8+I9+I10+I11+I12+I13+I14+I15+I16+I17+I18+I19+I20+I21+I22+I23+I24+I26</f>
+        <v>68.751900000000006</v>
+      </c>
+      <c r="L28" s="2">
+        <f>I3+I4+I5+I6+L7+I8+I9+I10+I11+I12+I13+I14+I15+I16+I17+I18+I19+I20+I21+I22+I23+L24+I26</f>
+        <v>55.556899999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1279,6 +1367,7 @@
     <hyperlink ref="F21" r:id="rId17" xr:uid="{1E408BC6-F155-4BC0-8A66-9E33132CCF77}"/>
     <hyperlink ref="F22" r:id="rId18" xr:uid="{6E771F3F-8957-4715-B505-C084206A8F9B}"/>
     <hyperlink ref="F19" r:id="rId19" xr:uid="{F58B123D-AB41-4392-9E53-A9A942267DDA}"/>
+    <hyperlink ref="F23" r:id="rId20" xr:uid="{B299C390-38E2-4D95-B644-8A00974AF8FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
